--- a/data/trans_media/P34F2_MIN_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34F2_MIN_2023-Habitat-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,1; 28,65</t>
+          <t>20,36; 29,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,38; 26,17</t>
+          <t>19,3; 26,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,78; 26,59</t>
+          <t>20,67; 25,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,82</t>
+          <t>17,64; 20,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 19,91</t>
+          <t>17,11; 19,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,83</t>
+          <t>17,74; 19,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 23,95</t>
+          <t>20,49; 23,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 22,25</t>
+          <t>19,92; 21,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 22,64</t>
+          <t>20,63; 22,65</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 24,28</t>
+          <t>20,04; 24,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 22,06</t>
+          <t>12,78; 22,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,12</t>
+          <t>15,84; 22,15</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,93; 21,69</t>
+          <t>18,92; 21,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,04; 21,31</t>
+          <t>19,06; 21,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 21,16</t>
+          <t>19,37; 21,18</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 21,98</t>
+          <t>20,31; 21,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,98; 20,78</t>
+          <t>17,9; 20,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,4; 21,06</t>
+          <t>19,35; 21,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P34F2_MIN_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34F2_MIN_2023-Habitat-trans_media.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
